--- a/Results/xlsx/Result_EE.xlsx
+++ b/Results/xlsx/Result_EE.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2021-02-26 14:40</t>
+          <t>2021-03-02 19:39</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2021-02-26 14:52</t>
+          <t>2021-03-02 19:23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -547,7 +547,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2021-02-26 14:52</t>
+          <t>2021-03-02 19:22</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2021-02-26 14:37</t>
+          <t>2021-03-02 19:38</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2021-02-26 14:39</t>
+          <t>2021-03-02 19:37</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2021-02-26 14:52</t>
+          <t>2021-03-02 19:22</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2021-02-26 14:27</t>
+          <t>2021-03-02 19:22</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2021-02-26 14:37</t>
+          <t>2021-03-02 19:37</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2021-02-26 14:37</t>
+          <t>2021-03-02 19:37</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -736,7 +736,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2021-02-26 10:36</t>
+          <t>2021-03-02 13:54</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2021-02-26 14:37</t>
+          <t>2021-03-02 19:37</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -790,7 +790,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2021-02-26 14:44</t>
+          <t>2021-03-02 19:38</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2021-02-26 14:36</t>
+          <t>2021-03-02 19:14</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2021-02-26 14:47</t>
+          <t>2021-03-02 19:17</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2021-02-26 14:36</t>
+          <t>2021-03-02 19:37</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2021-02-26 14:36</t>
+          <t>2021-03-02 19:36</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2021-02-26 14:36</t>
+          <t>2021-03-02 19:36</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2021-02-26 14:36</t>
+          <t>2021-03-02 19:16</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2021-02-26 14:36</t>
+          <t>2021-03-02 19:36</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2021-02-26 14:36</t>
+          <t>2021-03-02 19:36</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2021-02-26 14:36</t>
+          <t>2021-03-02 19:36</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2021-02-26 14:42</t>
+          <t>2021-03-02 19:12</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2021-02-26 14:26</t>
+          <t>2021-03-02 19:26</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1109,12 +1109,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>200026</t>
+          <t>200025</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2021-02-26 14:36</t>
+          <t>2021-03-02 19:40</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1136,12 +1136,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>200027</t>
+          <t>200026</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2021-02-26 14:45</t>
+          <t>2021-03-02 19:36</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1163,24 +1163,51 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>200027</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2021-03-02 19:36</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     1</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EE     </t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>TP-IN-CDB03</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>-IN-CD</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t xml:space="preserve">NULL            </t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     1</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>(26 rows affected)</t>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     1</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>(27 rows affected)</t>
         </is>
       </c>
     </row>
